--- a/DataOut/unique_grouped_sorted.xlsx
+++ b/DataOut/unique_grouped_sorted.xlsx
@@ -503,25 +503,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AIX-LES-BAINS</t>
+          <t>AIX LES BAINS</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>1997463</v>
+        <v>1937107</v>
       </c>
       <c r="G2" t="n">
-        <v>7330</v>
+        <v>7006</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J2" t="inlineStr"/>
     </row>
@@ -543,25 +543,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AIX LES BAINS</t>
+          <t>AIX-LES-BAINS</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>1937107</v>
+        <v>2137414</v>
       </c>
       <c r="G3" t="n">
-        <v>7006</v>
+        <v>8716</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J3" t="inlineStr"/>
     </row>
@@ -583,25 +583,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Paris 1er</t>
+          <t>PARIS 1er</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>572</v>
+        <v>589</v>
       </c>
       <c r="F4" t="n">
-        <v>2847199</v>
+        <v>2832589</v>
       </c>
       <c r="G4" t="n">
-        <v>13625</v>
+        <v>14142</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J4" t="inlineStr"/>
     </row>
@@ -663,25 +663,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PARIS 1er</t>
+          <t>Paris 1er</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="F6" t="n">
-        <v>2832589</v>
+        <v>2847199</v>
       </c>
       <c r="G6" t="n">
-        <v>14142</v>
+        <v>13625</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J6" t="inlineStr"/>
     </row>
@@ -703,25 +703,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>PARIS 2e</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="F7" t="n">
-        <v>2361067</v>
+        <v>2473198</v>
       </c>
       <c r="G7" t="n">
-        <v>10649</v>
+        <v>11162</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J7" t="inlineStr"/>
     </row>
@@ -743,25 +743,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PARIS 2e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>385</v>
+        <v>303</v>
       </c>
       <c r="F8" t="n">
-        <v>2473198</v>
+        <v>2361067</v>
       </c>
       <c r="G8" t="n">
-        <v>11162</v>
+        <v>10649</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J8" t="inlineStr"/>
     </row>
@@ -823,25 +823,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Paris 3e</t>
+          <t>PARIS 3e</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="F10" t="n">
-        <v>2601499</v>
+        <v>2653122</v>
       </c>
       <c r="G10" t="n">
-        <v>12215</v>
+        <v>13157</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J10" t="inlineStr"/>
     </row>
@@ -903,25 +903,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARIS 3e</t>
+          <t>Paris 3e</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>887</v>
+        <v>848</v>
       </c>
       <c r="F12" t="n">
-        <v>2653122</v>
+        <v>2601499</v>
       </c>
       <c r="G12" t="n">
-        <v>13157</v>
+        <v>12215</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J12" t="inlineStr"/>
     </row>
@@ -943,25 +943,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 4e</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>836</v>
+        <v>924</v>
       </c>
       <c r="F13" t="n">
-        <v>2761867</v>
+        <v>2813386</v>
       </c>
       <c r="G13" t="n">
-        <v>13712</v>
+        <v>14092</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J13" t="inlineStr"/>
     </row>
@@ -983,25 +983,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paris 4e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>924</v>
+        <v>836</v>
       </c>
       <c r="F14" t="n">
-        <v>2813386</v>
+        <v>2761867</v>
       </c>
       <c r="G14" t="n">
-        <v>14092</v>
+        <v>13712</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J14" t="inlineStr"/>
     </row>
@@ -1063,25 +1063,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PARIS 5e</t>
+          <t>Paris 5e</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1782</v>
+        <v>1721</v>
       </c>
       <c r="F16" t="n">
-        <v>2524413</v>
+        <v>2490447</v>
       </c>
       <c r="G16" t="n">
-        <v>10874</v>
+        <v>11052</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J16" t="inlineStr"/>
     </row>
@@ -1103,25 +1103,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paris 5e</t>
+          <t>PARIS 5e</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1721</v>
+        <v>1782</v>
       </c>
       <c r="F17" t="n">
-        <v>2490447</v>
+        <v>2524413</v>
       </c>
       <c r="G17" t="n">
-        <v>11052</v>
+        <v>10874</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J17" t="inlineStr"/>
     </row>
@@ -1183,25 +1183,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 6e</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2668</v>
+        <v>2816</v>
       </c>
       <c r="F19" t="n">
-        <v>2872758</v>
+        <v>2969480</v>
       </c>
       <c r="G19" t="n">
-        <v>14777</v>
+        <v>14784</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J19" t="inlineStr"/>
     </row>
@@ -1223,25 +1223,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Paris 6e</t>
+          <t>PARIS 6e</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2816</v>
+        <v>2899</v>
       </c>
       <c r="F20" t="n">
-        <v>2969480</v>
+        <v>3057838</v>
       </c>
       <c r="G20" t="n">
-        <v>14784</v>
+        <v>15912</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J20" t="inlineStr"/>
     </row>
@@ -1263,25 +1263,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PARIS 6e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2899</v>
+        <v>2668</v>
       </c>
       <c r="F21" t="n">
-        <v>3057838</v>
+        <v>2872758</v>
       </c>
       <c r="G21" t="n">
-        <v>15912</v>
+        <v>14777</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J21" t="inlineStr"/>
     </row>
@@ -1343,25 +1343,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PARIS 7e</t>
+          <t>Paris 7e</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4417</v>
+        <v>4318</v>
       </c>
       <c r="F23" t="n">
-        <v>3395137</v>
+        <v>3273652</v>
       </c>
       <c r="G23" t="n">
-        <v>18722</v>
+        <v>17507</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J23" t="inlineStr"/>
     </row>
@@ -1383,25 +1383,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Paris 7e</t>
+          <t>PARIS 7e</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4318</v>
+        <v>4417</v>
       </c>
       <c r="F24" t="n">
-        <v>3273652</v>
+        <v>3395137</v>
       </c>
       <c r="G24" t="n">
-        <v>17507</v>
+        <v>18722</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J24" t="inlineStr"/>
     </row>
@@ -1543,25 +1543,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Paris 9e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1321</v>
+        <v>1120</v>
       </c>
       <c r="F28" t="n">
-        <v>2252104</v>
+        <v>2249913</v>
       </c>
       <c r="G28" t="n">
-        <v>8893</v>
+        <v>9414</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J28" t="inlineStr"/>
     </row>
@@ -1623,25 +1623,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 9e</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1120</v>
+        <v>1321</v>
       </c>
       <c r="F30" t="n">
-        <v>2249913</v>
+        <v>2252104</v>
       </c>
       <c r="G30" t="n">
-        <v>9414</v>
+        <v>8893</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J30" t="inlineStr"/>
     </row>
@@ -1663,25 +1663,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>PARIS 10e</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>530</v>
+        <v>714</v>
       </c>
       <c r="F31" t="n">
-        <v>2166497</v>
+        <v>2183052</v>
       </c>
       <c r="G31" t="n">
-        <v>8407</v>
+        <v>8458</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J31" t="inlineStr"/>
     </row>
@@ -1703,25 +1703,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Paris 10e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>637</v>
+        <v>530</v>
       </c>
       <c r="F32" t="n">
-        <v>2178027</v>
+        <v>2166497</v>
       </c>
       <c r="G32" t="n">
-        <v>8359</v>
+        <v>8407</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J32" t="inlineStr"/>
     </row>
@@ -1743,25 +1743,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PARIS 10e</t>
+          <t>Paris 10e</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>714</v>
+        <v>637</v>
       </c>
       <c r="F33" t="n">
-        <v>2183052</v>
+        <v>2178027</v>
       </c>
       <c r="G33" t="n">
-        <v>8458</v>
+        <v>8359</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J33" t="inlineStr"/>
     </row>
@@ -1783,25 +1783,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Paris 11e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1181</v>
+        <v>1064</v>
       </c>
       <c r="F34" t="n">
-        <v>2247914</v>
+        <v>2207679</v>
       </c>
       <c r="G34" t="n">
-        <v>8977</v>
+        <v>8508</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J34" t="inlineStr"/>
     </row>
@@ -1823,25 +1823,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PARIS 11e</t>
+          <t>Paris 11e</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1275</v>
+        <v>1181</v>
       </c>
       <c r="F35" t="n">
-        <v>2249877</v>
+        <v>2247914</v>
       </c>
       <c r="G35" t="n">
-        <v>8816</v>
+        <v>8977</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J35" t="inlineStr"/>
     </row>
@@ -1863,25 +1863,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>PARIS 11e</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1064</v>
+        <v>1275</v>
       </c>
       <c r="F36" t="n">
-        <v>2207679</v>
+        <v>2249877</v>
       </c>
       <c r="G36" t="n">
-        <v>8508</v>
+        <v>8816</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J36" t="inlineStr"/>
     </row>
@@ -1903,25 +1903,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Paris 12e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>1109</v>
       </c>
       <c r="F37" t="n">
-        <v>2232977</v>
+        <v>2225703</v>
       </c>
       <c r="G37" t="n">
-        <v>8928</v>
+        <v>9067</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J37" t="inlineStr"/>
     </row>
@@ -1983,25 +1983,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 12e</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1109</v>
+        <v>1202</v>
       </c>
       <c r="F39" t="n">
-        <v>2225703</v>
+        <v>2232977</v>
       </c>
       <c r="G39" t="n">
-        <v>9067</v>
+        <v>8928</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J39" t="inlineStr"/>
     </row>
@@ -2063,25 +2063,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>PARIS 13e</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>936</v>
+        <v>1135</v>
       </c>
       <c r="F41" t="n">
-        <v>2156244</v>
+        <v>2191950</v>
       </c>
       <c r="G41" t="n">
-        <v>8602</v>
+        <v>8705</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J41" t="inlineStr"/>
     </row>
@@ -2103,25 +2103,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PARIS 13e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1135</v>
+        <v>936</v>
       </c>
       <c r="F42" t="n">
-        <v>2191950</v>
+        <v>2156244</v>
       </c>
       <c r="G42" t="n">
-        <v>8705</v>
+        <v>8602</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J42" t="inlineStr"/>
     </row>
@@ -2383,25 +2383,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PARIS 16e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9670</v>
+        <v>8853</v>
       </c>
       <c r="F49" t="n">
-        <v>2950290</v>
+        <v>2833570</v>
       </c>
       <c r="G49" t="n">
-        <v>14342</v>
+        <v>13790</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J49" t="inlineStr"/>
     </row>
@@ -2463,25 +2463,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>PARIS 16e</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8853</v>
+        <v>9670</v>
       </c>
       <c r="F51" t="n">
-        <v>2833570</v>
+        <v>2950290</v>
       </c>
       <c r="G51" t="n">
-        <v>13790</v>
+        <v>14342</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="J51" t="inlineStr"/>
     </row>
@@ -2543,25 +2543,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 17e</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3625</v>
+        <v>3933</v>
       </c>
       <c r="F53" t="n">
-        <v>2443877</v>
+        <v>2474270</v>
       </c>
       <c r="G53" t="n">
-        <v>10638</v>
+        <v>10393</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J53" t="inlineStr"/>
     </row>
@@ -2583,25 +2583,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Paris 17e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3933</v>
+        <v>3625</v>
       </c>
       <c r="F54" t="n">
-        <v>2474270</v>
+        <v>2443877</v>
       </c>
       <c r="G54" t="n">
-        <v>10393</v>
+        <v>10638</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J54" t="inlineStr"/>
     </row>
@@ -2623,25 +2623,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 18e</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>799</v>
+        <v>875</v>
       </c>
       <c r="F55" t="n">
-        <v>2465575</v>
+        <v>2521034</v>
       </c>
       <c r="G55" t="n">
-        <v>11154</v>
+        <v>11273</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J55" t="inlineStr"/>
     </row>
@@ -2703,25 +2703,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Paris 18e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>875</v>
+        <v>799</v>
       </c>
       <c r="F57" t="n">
-        <v>2521034</v>
+        <v>2465575</v>
       </c>
       <c r="G57" t="n">
-        <v>11273</v>
+        <v>11154</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J57" t="inlineStr"/>
     </row>
@@ -2743,25 +2743,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Paris 19e</t>
+          <t>PARIS 19e</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>541</v>
+        <v>594</v>
       </c>
       <c r="F58" t="n">
-        <v>2275077</v>
+        <v>2385687</v>
       </c>
       <c r="G58" t="n">
-        <v>8813</v>
+        <v>9972</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J58" t="inlineStr"/>
     </row>
@@ -2823,25 +2823,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PARIS 19e</t>
+          <t>VILLE DE PARIS</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>594</v>
+        <v>471</v>
       </c>
       <c r="F60" t="n">
-        <v>2385687</v>
+        <v>2226403</v>
       </c>
       <c r="G60" t="n">
-        <v>9972</v>
+        <v>8683</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2019.xls</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="J60" t="inlineStr"/>
     </row>
@@ -2863,25 +2863,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VILLE DE PARIS</t>
+          <t>Paris 19e</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="F61" t="n">
-        <v>2226403</v>
+        <v>2275077</v>
       </c>
       <c r="G61" t="n">
-        <v>8683</v>
+        <v>8813</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ificom-2019.xls</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="J61" t="inlineStr"/>
     </row>
@@ -2903,25 +2903,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Paris 20e</t>
+          <t>PARIS 20e</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="F62" t="n">
-        <v>2222816</v>
+        <v>2216894</v>
       </c>
       <c r="G62" t="n">
-        <v>8489</v>
+        <v>8527</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J62" t="inlineStr"/>
     </row>
@@ -2983,25 +2983,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PARIS 20e</t>
+          <t>Paris 20e</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>599</v>
+        <v>556</v>
       </c>
       <c r="F64" t="n">
-        <v>2216894</v>
+        <v>2222816</v>
       </c>
       <c r="G64" t="n">
-        <v>8527</v>
+        <v>8489</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ificom-2022.xlsx</t>
+          <t>ificom-2021.xlsx</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="J64" t="inlineStr"/>
     </row>
@@ -3027,21 +3027,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F65" t="n">
-        <v>2146757</v>
+        <v>2163052</v>
       </c>
       <c r="G65" t="n">
-        <v>8447</v>
+        <v>8631</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ificom-2021.xlsx</t>
+          <t>ificom-2022.xlsx</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J65" t="inlineStr"/>
     </row>
